--- a/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
@@ -9,6 +9,11 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Distribution_Logic" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="All_Courses_Overview" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,7 +479,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -484,12 +489,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,12 +526,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC306</t>
         </is>
       </c>
     </row>
@@ -570,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +585,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -590,7 +595,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC301</t>
         </is>
       </c>
     </row>
@@ -602,12 +607,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -649,12 +654,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -666,27 +671,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>EC301 (Tutorial)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -701,7 +706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,32 +764,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**EC306**</t>
+          <t>**EC351**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Jagdish R.B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -806,22 +811,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**HS351**</t>
+          <t>**EC306**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chandrika Kamath</t>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -831,7 +836,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -853,7 +858,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -863,7 +868,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -900,27 +905,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**EC301**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jagadish D.N</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -957,7 +962,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -994,27 +999,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**EC351**</t>
+          <t>**HS351**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jagdish R.B</t>
+          <t>Chandrika Kamath</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1041,47 +1046,4209 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>**EC301**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Jagadish D.N</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Total Courses: 7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Complete: 0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rate: 0.0%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lectures: 14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[WARN] 7 issues</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Total Courses: 6</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Complete: 0</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rate: 0.0%</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lectures: 12</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Labs: 2</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[WARN] 6 issues</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 4, Elective: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/7 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 60.0%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 33.0/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Jagadish D.N</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Jagdish R.B</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Chandrika Kamath</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled In</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Logic Applied</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>In Pre-Mid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>In Post-Mid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Environmental Studies</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Jagadish D.N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Jagdish R.B</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Chandrika Kamath</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Environmental Studies</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Jagadish D.N</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Jagdish R.B</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Chandrika Kamath</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C002, C004, C101, C302, L403</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C004, C102, C303, L404</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, C104, C304, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, C302, C305, L402, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004, C101, C102, C304, L405, L407, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004, C102, C104, C305, L406, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C004, C104, C304, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C002, C004, C101, C302, L403</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C003, C004, C102, C303, L404</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C104, C304, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C004, C302, C305, L402, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004, C101, C102, C304, L405, L407, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004, C102, C104, C305, L406, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C004, C101, C102, C104, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001, C004, C104, C304, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C002, C004, C101, C305</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C001, C003, C004</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4766,26 +4766,26 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -4795,12 +4795,12 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -4825,22 +4825,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -4854,12 +4854,12 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4884,22 +4884,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4910,15 +4910,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -4943,22 +4947,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -4969,15 +4973,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -5002,22 +5010,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -5035,12 +5043,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -5065,22 +5073,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -5098,12 +5106,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -5128,22 +5136,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5161,12 +5169,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -5191,22 +5199,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5224,12 +5232,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5262,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5269,7 +5277,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -5280,19 +5288,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -5312,22 +5316,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -5343,19 +5347,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -5375,27 +5375,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5406,15 +5406,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -5439,22 +5443,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -5465,15 +5469,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -5498,22 +5506,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5524,15 +5532,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -5557,22 +5569,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5590,12 +5602,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5632,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5646,19 +5658,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5691,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5709,19 +5717,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC351</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5750,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5772,19 +5776,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -5804,12 +5804,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -5863,27 +5863,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5894,15 +5894,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5931,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5946,14 +5950,18 @@
         </is>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5961,7 +5969,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -5986,22 +5994,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -6012,15 +6020,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -6045,22 +6057,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6078,12 +6090,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -6108,22 +6120,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -6136,17 +6148,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -6171,22 +6183,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6199,17 +6211,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -6234,22 +6246,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6262,17 +6274,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -6297,22 +6309,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6330,12 +6342,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -6360,22 +6372,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -6393,12 +6405,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6423,22 +6435,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -6456,12 +6468,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -6486,20 +6498,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -6508,19 +6524,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -6540,22 +6552,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -6571,19 +6583,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -6603,27 +6611,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6636,17 +6644,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -6671,22 +6679,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6697,15 +6705,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -6730,22 +6742,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6763,12 +6775,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -6793,22 +6805,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6826,12 +6838,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -6856,22 +6868,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6884,17 +6896,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -6919,22 +6931,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6947,17 +6959,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -6982,22 +6994,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -7015,12 +7027,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -7045,22 +7057,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -7078,12 +7090,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -7108,22 +7120,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -7141,12 +7153,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -7171,22 +7183,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -7204,12 +7216,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -7234,7 +7246,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7260,19 +7272,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -7292,25 +7300,29 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I55" t="b">
         <v>0</v>
       </c>
@@ -7319,19 +7331,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -7351,27 +7359,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -7382,4444 +7390,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>5</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>5</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>5</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>5</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>5</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>5</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>5</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>5</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>5</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>5</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>5</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>5</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>5</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>5</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>5</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>5</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>5</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>5</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>5</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>5</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>5</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>5</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>5</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>5</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>5</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>5</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>5</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>5</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>5</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>5</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>EC306</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>5</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>5</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>5</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>5</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>5</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>5</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>5</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>5</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>5</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>5</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>EC301 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>5</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>EC306</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>5</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>5</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>5</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>5</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>5</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>5</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>5</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>EC351</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>5</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>EC351</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>5</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>5</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>5</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>5</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>5</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>5</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>5</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>5</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>5</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>5</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>5</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>5</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>5</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>5</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>5</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>5</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>5</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>5</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>5</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>5</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>5</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>EC365</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,59 +481,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC306 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC306 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HS351 [C302]</t>
+          <t>EC351 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS351 [L404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -545,91 +545,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC301 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC301 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HS351 [C301]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C004]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>EC351 [C101]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,22 +641,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC301 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,32 +673,96 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [L201]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HS351 [C304]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>EC306 (Lab) [C004]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [L201]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial) [C303]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C101]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C101]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C101]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C101]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -713,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,11 +855,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC368, DE351, EC358</t>
+          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -808,96 +872,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>Semester 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS463, CS308, DS301, CS366</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Semester 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>Semester 5</t>
         </is>
@@ -914,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +941,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC368</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -981,7 +955,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1002,7 +976,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DE351</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1016,7 +990,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1037,7 +1011,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC358</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1051,7 +1025,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1067,26 +1041,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC368</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1102,26 +1076,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1137,26 +1111,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1172,26 +1146,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1207,26 +1181,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1242,26 +1216,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DE351</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1277,26 +1251,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC358</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1304,111 +1278,6 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1590,16 +1459,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1624,16 +1493,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2168,16 +2037,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2202,16 +2071,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2236,16 +2105,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2270,16 +2139,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2522,16 +2391,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2686,7 +2555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2729,59 +2598,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC306 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC306 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HS351 [C302]</t>
+          <t>EC351 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS351 [L404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2793,91 +2662,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC301 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC301 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HS351 [C301]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>EC351 [C101]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2889,22 +2758,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC301 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2921,32 +2790,96 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HS351 [C304]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial) [C303]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C101]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C101]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C101]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C101]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -2994,10 +2927,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3007,10 +2944,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3020,10 +2961,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3033,14 +2978,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3050,12 +2991,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3008,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3084,12 +3025,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -3101,12 +3042,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -3118,14 +3059,10 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3135,14 +3072,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3174,7 +3107,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3124,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3141,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3175,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3192,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3209,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3226,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3243,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3423,7 +3356,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101, L201</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3403,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3524,34 +3457,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**EC351**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Jagdish R.B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>No</t>
@@ -3564,34 +3497,34 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C101, C303</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**EC351**</t>
+          <t>**HS351**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jagdish R.B</t>
+          <t>Chandrika Kamath</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3611,146 +3544,52 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304, C301</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Total Courses: 5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Complete: 0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>Rate: 0.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Lectures: 10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>Not Allocated</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**HS351**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Happiness &amp; Wellbeing</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Chandrika Kamath</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>L404, C302</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total Courses: 7</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Complete: 0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Rate: 0.0%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lectures: 14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Labs: 2</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[WARN] 7 issues</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -3767,7 +3606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3825,50 +3664,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Proj+AC</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>9</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>6</v>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC306, EC306 (Lab), EC351...</t>
+          <t>EC306, MINOR: Cybersecurity, EC301...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C301</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3876,14 +3713,12 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+      <c r="C3" t="n">
+        <v>50</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Proj</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -3911,7 +3746,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3919,14 +3754,12 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="C4" t="n">
+        <v>50</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Proj</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -3942,12 +3775,94 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Proj</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>HS351</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L201</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lab</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hardware+Proj</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4036,6 +3951,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4058,22 +3978,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -4087,12 +4007,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4117,22 +4042,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -4146,12 +4071,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4176,22 +4106,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -4205,12 +4135,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4235,22 +4170,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -4264,12 +4199,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>EC301 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4289,27 +4229,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -4323,12 +4263,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4348,27 +4293,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -4382,12 +4327,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4407,27 +4357,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -4441,12 +4391,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4471,22 +4426,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -4500,12 +4455,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4485,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4535,17 +4495,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -4559,12 +4519,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4549,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4618,12 +4583,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4643,27 +4613,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -4677,12 +4647,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>EC351</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4702,12 +4677,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4717,7 +4692,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4736,12 +4711,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>HS351</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4761,12 +4741,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4781,7 +4761,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -4789,18 +4769,23 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4820,27 +4805,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -4848,18 +4833,23 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4879,27 +4869,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4907,22 +4897,23 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4942,27 +4933,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -4970,22 +4961,23 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5005,27 +4997,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Physics Lab</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Physics Equipment</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -5033,22 +5025,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C301</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5068,27 +5061,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -5096,22 +5089,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5131,27 +5125,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5159,22 +5153,23 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5194,27 +5189,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5222,22 +5217,23 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5257,12 +5253,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5285,18 +5281,23 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5316,12 +5317,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5344,18 +5345,23 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5381,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5385,17 +5391,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5406,21 +5412,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -5438,12 +5441,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5471,7 +5474,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -5481,7 +5484,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5501,27 +5509,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5534,17 +5542,22 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5564,27 +5577,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5597,17 +5610,22 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5627,29 +5645,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -5658,15 +5672,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5709,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5717,15 +5740,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5745,12 +5777,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5776,15 +5808,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5804,27 +5845,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5835,15 +5876,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5863,27 +5913,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5901,12 +5951,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5926,27 +5981,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5964,12 +6019,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5989,29 +6049,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -6027,12 +6083,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6052,7 +6113,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -6062,17 +6123,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6083,21 +6144,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -6120,7 +6178,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6148,7 +6206,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -6158,7 +6216,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6183,22 +6246,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6211,17 +6274,22 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6246,22 +6314,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6274,17 +6342,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6309,24 +6382,20 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="b">
         <v>0</v>
       </c>
@@ -6337,17 +6406,22 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6410,7 +6484,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6440,17 +6519,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -6468,12 +6547,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6498,17 +6582,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -6524,15 +6608,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6552,29 +6645,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="b">
         <v>0</v>
       </c>
@@ -6583,15 +6672,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6611,27 +6709,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6644,17 +6742,22 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6674,27 +6777,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6707,17 +6810,22 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6742,22 +6850,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6768,21 +6876,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6843,7 +6948,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6868,22 +6978,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6896,17 +7006,22 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6931,22 +7046,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6959,17 +7074,22 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6994,24 +7114,20 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="b">
         <v>0</v>
       </c>
@@ -7022,17 +7138,22 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7095,7 +7216,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7125,17 +7251,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -7153,12 +7279,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7188,17 +7319,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -7216,12 +7347,17 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7246,24 +7382,20 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="b">
         <v>0</v>
       </c>
@@ -7272,15 +7404,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7300,12 +7441,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7331,15 +7472,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7359,12 +7509,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -7390,15 +7540,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7709,12 +7868,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7729,7 +7888,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -7758,120 +7917,6 @@
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3/0/0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Happiness &amp; Wellbeing</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3/0/0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -7951,7 +7996,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 12:24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7972,11 +8017,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 4, Elective: 3</t>
+          <t>Core: 4, Elective: 1</t>
         </is>
       </c>
     </row>
@@ -7998,7 +8043,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/7 courses fully compliant</t>
+          <t>0/5 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -8015,12 +8060,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3/36</t>
+          <t>5/16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 8.3%</t>
+          <t>Utilization: 31.2%</t>
         </is>
       </c>
     </row>
@@ -8037,12 +8082,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.8%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 60.0%, B: 0.0%</t>
+          <t>A: 55.6%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -8064,7 +8109,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 33.0/100</t>
+          <t>Score: 32.3/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403, L405</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404, L407</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405, L408</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004, L406</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, L408</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403, L405</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404, L407</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405, L408</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004, L406</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, L408</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101, C102</t>
         </is>
       </c>
     </row>
@@ -5415,7 +5415,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5451,17 +5451,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5519,17 +5519,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5663,7 +5663,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -5679,7 +5683,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -5719,19 +5723,15 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -5855,17 +5855,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -5923,17 +5923,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -5991,17 +5991,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -6059,15 +6059,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -6083,7 +6087,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -6183,17 +6187,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -6211,7 +6215,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -6251,17 +6255,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6279,7 +6283,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -6319,17 +6323,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6347,7 +6351,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -6387,15 +6391,19 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I39" t="b">
         <v>0</v>
       </c>
@@ -6411,7 +6419,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -6915,17 +6923,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6943,7 +6951,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -6983,17 +6991,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -7011,7 +7019,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -7051,17 +7059,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -7079,7 +7087,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -7119,15 +7127,19 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I50" t="b">
         <v>0</v>
       </c>
@@ -7143,7 +7155,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">

--- a/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
@@ -486,27 +486,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -518,22 +518,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC306 [C101]</t>
+          <t>EC306 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC306 [C101]</t>
+          <t>EC306 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC351 [C101]</t>
+          <t>EC351 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351 [C004]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -550,22 +550,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC301 [C101]</t>
+          <t>EC301 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC301 [C101]</t>
+          <t>EC301 [L408]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HS351 [C301]</t>
+          <t>HS351 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS351 [C302]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC351 [C101]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C101]</t>
+          <t>EC301 (Tutorial) [L402]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L201]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HS351 [C304]</t>
+          <t>EC306 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L201]</t>
+          <t>EC351 (Tutorial) [C003]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C303]</t>
+          <t>EC306 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,11 +855,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+          <t>EC368, DE351, EC358</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -872,6 +872,96 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, CS366</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Semester 5</t>
         </is>
@@ -888,7 +978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +1031,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -955,7 +1045,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -976,7 +1066,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DE351</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -990,7 +1080,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1011,7 +1101,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC358</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1025,7 +1115,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1041,26 +1131,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC368</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1076,26 +1166,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1111,26 +1201,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1146,26 +1236,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1181,26 +1271,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1216,26 +1306,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE351</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1251,26 +1341,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC358</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1278,6 +1368,111 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1361,16 +1556,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1425,16 +1620,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1459,16 +1654,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1493,16 +1688,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1901,16 +2096,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1935,16 +2130,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2037,16 +2232,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2071,16 +2266,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2105,16 +2300,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2139,16 +2334,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2323,16 +2518,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2527,16 +2722,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2603,27 +2798,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -2635,22 +2830,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC306 [C101]</t>
+          <t>EC306 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC306 [C101]</t>
+          <t>EC306 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC351 [C101]</t>
+          <t>EC351 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC351 [C004]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2667,22 +2862,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC301 [C101]</t>
+          <t>EC301 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC301 [C101]</t>
+          <t>EC301 [L408]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HS351 [C301]</t>
+          <t>HS351 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS351 [C302]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2736,7 +2931,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC351 [C101]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2746,7 +2941,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2763,7 +2958,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C101]</t>
+          <t>EC301 (Tutorial) [L402]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2773,12 +2968,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2795,17 +2990,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HS351 [C304]</t>
+          <t>EC306 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2827,12 +3022,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC351 (Tutorial) [C003]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C303]</t>
+          <t>EC306 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2859,27 +3054,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -2927,14 +3122,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>L403, L405</t>
-        </is>
-      </c>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2944,14 +3135,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>L404, L407</t>
-        </is>
-      </c>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2961,14 +3148,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>L405, L408</t>
-        </is>
-      </c>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2978,10 +3161,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2991,12 +3178,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, L406</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3195,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, L408</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3212,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3229,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3059,10 +3246,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3072,10 +3263,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3090,7 +3285,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L403, L405</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3302,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>L404, L407</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3319,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>L405, L408</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3336,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C004, L406</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3353,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004, L408</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3370,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3387,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3404,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3421,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3438,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C101, C102</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3356,7 +3551,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C101, L201</t>
+          <t>C004, L207</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3598,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004, L402, L408</t>
         </is>
       </c>
     </row>
@@ -3457,27 +3652,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**EC351**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jagdish R.B</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3497,34 +3692,34 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C101, C303</t>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**HS351**</t>
+          <t>**EC351**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chandrika Kamath</t>
+          <t>Jagdish R.B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3544,52 +3739,146 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C304, C301</t>
+          <t>C004, C003</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>**HS351**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chandrika Kamath</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C004, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total Courses: 5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Total Courses: 7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Complete: 0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Rate: 0.0%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lectures: 10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lectures: 14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Labs: 2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[WARN] 5 issues</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[WARN] 7 issues</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -3606,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3664,24 +3953,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Proj+AC</t>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3689,36 +3975,38 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC306, MINOR: Cybersecurity, EC301...</t>
+          <t>MINOR: DSAI, MINOR: VLSI, MINOR: Design...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C301</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Proj</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -3734,7 +4022,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3746,24 +4034,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Proj</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3771,23 +4061,23 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>EC306, EC301, EC351...</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3795,12 +4085,14 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>50</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Proj</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -3828,20 +4120,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L201</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>lab</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hardware+Proj</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -3863,6 +4157,92 @@
       <c r="I6" t="inlineStr">
         <is>
           <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>EC301 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3877,7 +4257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3913,47 +4293,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -3983,42 +4373,46 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>MINOR: Generative Ai</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4047,42 +4441,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>EC306</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4111,42 +4513,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>EC301</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4175,42 +4585,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>EC301 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>EC301 (Tutorial)</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4234,47 +4652,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4298,47 +4724,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4357,52 +4787,56 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4426,47 +4860,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4490,47 +4932,55 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4554,47 +5004,55 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4618,47 +5076,55 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4682,47 +5148,51 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4741,52 +5211,56 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4805,52 +5279,60 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4874,47 +5356,55 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4938,47 +5428,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4997,52 +5491,56 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Physics Lab</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Physics Equipment</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C301</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5061,52 +5559,60 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5130,47 +5636,55 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5199,42 +5713,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>MINOR: Cybersecurity</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5263,42 +5781,46 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>MINOR: DSAI</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5327,42 +5849,46 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>MINOR: Design</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5386,44 +5912,60 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -5451,46 +5993,54 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5519,46 +6069,54 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5587,46 +6145,54 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5655,46 +6221,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5723,42 +6297,54 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5777,56 +6363,64 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5855,46 +6449,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5923,46 +6525,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5991,46 +6601,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6049,56 +6667,64 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6117,7 +6743,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -6127,39 +6753,55 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -6187,46 +6829,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6255,46 +6905,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6318,51 +6976,59 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6386,51 +7052,59 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6459,46 +7133,54 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6527,46 +7209,54 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6595,46 +7285,54 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6663,42 +7361,54 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -6717,56 +7427,64 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6785,56 +7503,64 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6858,44 +7584,60 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
           <t>C202</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6923,46 +7665,54 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -6986,51 +7736,59 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -7054,51 +7812,59 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -7122,51 +7888,59 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -7195,46 +7969,54 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -7263,46 +8045,54 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -7331,246 +8121,54 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>5</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>5</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>5</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
+      <c r="P53" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7584,7 +8182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7880,55 +8478,169 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>HS351</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>3-0-0-0-3</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>3/0/0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2/0/0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>0/0/0</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[FAIL]</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[WARN] PARTIAL</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -8008,7 +8720,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 12:24</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8029,11 +8741,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 4, Elective: 1</t>
+          <t>Core: 4, Elective: 3</t>
         </is>
       </c>
     </row>
@@ -8055,7 +8767,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/5 courses fully compliant</t>
+          <t>0/7 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -8072,12 +8784,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5/16</t>
+          <t>7/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 31.2%</t>
+          <t>Utilization: 19.4%</t>
         </is>
       </c>
     </row>
@@ -8094,12 +8806,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>27.8%</t>
+          <t>34.4%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 55.6%, B: 0.0%</t>
+          <t>A: 68.9%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 32.3/100</t>
+          <t>Score: 34.3/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>EC351 [L402]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC301 [L408]</t>
+          <t>EC301 [C004]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HS351 [C302]</t>
+          <t>HS351 [C204]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L207]</t>
+          <t>EC306 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C003]</t>
+          <t>EC351 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L207]</t>
+          <t>EC306 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1620,16 +1620,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1858,16 +1858,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2028,16 +2028,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2130,16 +2130,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2266,16 +2266,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2334,16 +2334,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2518,16 +2518,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2722,16 +2722,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>EC351 [L402]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC301 [L408]</t>
+          <t>EC301 [C004]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HS351 [C302]</t>
+          <t>HS351 [C204]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L207]</t>
+          <t>EC306 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3022,12 +3022,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C003]</t>
+          <t>EC351 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L207]</t>
+          <t>EC306 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, L207</t>
+          <t>C004, L106</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004, L402, L408</t>
+          <t>C004, L402</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004, C003</t>
+          <t>C004, L402, C304</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, C302</t>
+          <t>C004, C204</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI, MINOR: VLSI, MINOR: Design...</t>
+          <t>MINOR: Cybersecurity, MINOR: Generative Ai, MINOR: Design...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3991,26 +3991,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4018,42 +4018,42 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>HS351, EC306, EC351...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4061,23 +4061,23 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC306, EC301, EC351...</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -4120,7 +4120,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4190,59 +4190,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>EC351, EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -4662,17 +4619,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4686,7 +4643,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4942,17 +4899,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -4966,7 +4923,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -5038,7 +4995,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -5110,7 +5067,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -5574,17 +5531,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -5598,7 +5555,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5656,7 +5613,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5670,7 +5627,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5922,12 +5879,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5950,7 +5907,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -6026,7 +5983,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -6084,7 +6041,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -6102,7 +6059,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -6160,7 +6117,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -6178,7 +6135,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -6378,17 +6335,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -6406,7 +6363,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6454,19 +6411,15 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="b">
         <v>0</v>
       </c>
@@ -6482,7 +6435,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6530,12 +6483,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6558,7 +6511,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6616,7 +6569,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -6634,7 +6587,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6682,17 +6635,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -6710,7 +6663,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6758,19 +6711,15 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="b">
         <v>0</v>
       </c>
@@ -6786,7 +6735,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6834,12 +6783,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6862,7 +6811,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6920,7 +6869,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6938,7 +6887,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6986,12 +6935,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -7014,7 +6963,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -7090,7 +7039,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -7148,7 +7097,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -7166,7 +7115,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -7224,7 +7173,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -7242,7 +7191,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7442,17 +7391,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -7470,7 +7419,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7518,19 +7467,15 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -7546,7 +7491,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7594,12 +7539,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -7622,7 +7567,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7680,7 +7625,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -7698,7 +7643,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7746,12 +7691,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -7774,7 +7719,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7850,7 +7795,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7908,7 +7853,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -7926,7 +7871,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7984,7 +7929,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -8002,7 +7947,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -8720,7 +8665,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8784,12 +8729,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
@@ -10038,7 +9983,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Not Scheduled (Error)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -10048,7 +9993,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -10748,7 +10693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11483,16 +11428,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Environmental Studies</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -11504,39 +11449,39 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
+          <t>Post-Mid</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aswath Babu H</t>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -11572,19 +11517,19 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Jagadish D.N</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -11620,23 +11565,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jagadish D.N</t>
+          <t>Jagdish R.B</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
@@ -11668,23 +11613,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jagdish R.B</t>
+          <t>Chandrika Kamath</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>5</v>
@@ -11716,19 +11661,19 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Chandrika Kamath</t>
+          <t>Pramod</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Compiler Design</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -11764,19 +11709,19 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Pramod</t>
+          <t>Pavan Kumar</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Compiler Design</t>
+          <t>Graphs and Social Network</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -11812,19 +11757,19 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Pavan Kumar</t>
+          <t>Utkarsh K</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC368</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Graphs and Social Network</t>
+          <t>Semiconductor Device Modeling</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -11860,19 +11805,19 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Utkarsh K</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EC368</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Semiconductor Device Modeling</t>
+          <t>Advanced Algorithm Design</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -11908,19 +11853,19 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Suvadip</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Advanced Algorithm Design</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -11956,19 +11901,19 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Suvadip</t>
+          <t>Manjunath K V</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -12004,19 +11949,19 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Internet of Things</t>
+          <t>Cryptography &amp; Information Security</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -12052,19 +11997,19 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Rajendra Hegadi</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DE351</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cryptography &amp; Information Security</t>
+          <t>User Interactions and Experience Design</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -12100,19 +12045,19 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Rajendra Hegadi</t>
+          <t>Sandesh P</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DE351</t>
+          <t>EC358</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>User Interactions and Experience Design</t>
+          <t>AI in Biomedical Signal Interpretation</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -12147,54 +12092,6 @@
         </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>AI in Biomedical Signal Interpretation</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>5</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Any</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
         <is>
           <t>Sibasankar Padhy</t>
         </is>

--- a/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_post_mid_timetable.xlsx
@@ -486,27 +486,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -518,22 +518,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>EC306 [L402]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>EC306 [C004]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EC306 [C004]</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>EC351 [C003]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC351 [L402]</t>
+          <t>EC351 [C003]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -550,17 +550,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>EC301 [L402]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>EC301 [C004]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>EC301 [C004]</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HS351 [C004]</t>
+          <t>HS351 [C101]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L106]</t>
+          <t>EC306 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C304]</t>
+          <t>EC351 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L106]</t>
+          <t>EC306 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -1556,16 +1556,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1620,16 +1620,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1688,16 +1688,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1722,16 +1722,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1858,16 +1858,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2130,16 +2130,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2334,16 +2334,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2518,16 +2518,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6.25</v>
+        <v>10</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2798,27 +2798,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -2830,22 +2830,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>EC306 [L402]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>EC306 [C004]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EC306 [C004]</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>EC351 [C003]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC351 [L402]</t>
+          <t>EC351 [C003]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2862,17 +2862,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>EC301 [L402]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>EC301 [C004]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>EC301 [C004]</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HS351 [C004]</t>
+          <t>HS351 [C101]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L106]</t>
+          <t>EC306 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3022,12 +3022,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C304]</t>
+          <t>EC351 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L106]</t>
+          <t>EC306 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3054,27 +3054,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, L106</t>
+          <t>C004, L207, L402</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004, L402, C304</t>
+          <t>C101, C003</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, C204</t>
+          <t>C101, C204</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3953,7 +3953,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3963,11 +3963,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3975,16 +3980,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, MINOR: Generative Ai, MINOR: Design...</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4015,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4018,23 +4023,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>HS351, EC306, EC351...</t>
+          <t>EC301, EC306</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4049,11 +4054,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4061,23 +4066,23 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC351 (Tutorial), HS351</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4092,11 +4097,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4104,42 +4109,42 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>MINOR: Generative Ai, MINOR: Design, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4151,34 +4156,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4190,16 +4195,59 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>EC351, EC301 (Tutorial)</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>EC301 (Tutorial), EC301, EC306</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -4335,15 +4383,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
@@ -4355,7 +4407,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4403,17 +4455,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -4427,7 +4479,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4475,17 +4527,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -4499,7 +4551,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4629,7 +4681,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4643,7 +4695,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4691,15 +4743,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
@@ -4711,7 +4767,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4759,15 +4815,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -4779,7 +4839,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4995,7 +5055,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -5067,7 +5127,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -5115,15 +5175,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
@@ -5135,7 +5199,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -5183,15 +5247,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -5203,7 +5271,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -5251,17 +5319,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -5275,7 +5343,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5323,17 +5391,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -5347,7 +5415,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5395,15 +5463,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -5415,7 +5487,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5463,15 +5535,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -5483,7 +5559,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5531,17 +5607,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -5555,7 +5631,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5675,15 +5751,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -5695,7 +5775,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5743,15 +5823,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -5763,7 +5847,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5811,15 +5895,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -5831,7 +5919,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5879,12 +5967,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5907,7 +5995,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5983,7 +6071,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -6059,7 +6147,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -6211,7 +6299,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6287,7 +6375,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6335,17 +6423,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -6363,7 +6451,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6411,15 +6499,19 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
@@ -6435,7 +6527,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6483,12 +6575,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6511,7 +6603,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6587,7 +6679,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6635,17 +6727,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -6663,7 +6755,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6711,15 +6803,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
@@ -6735,7 +6831,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6783,12 +6879,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6811,7 +6907,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6887,7 +6983,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6935,12 +7031,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6963,7 +7059,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -7039,7 +7135,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -7115,7 +7211,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -7267,7 +7363,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7343,7 +7439,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7391,17 +7487,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -7419,7 +7515,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7467,15 +7563,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -7491,7 +7591,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7539,12 +7639,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -7567,7 +7667,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7643,7 +7743,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7691,12 +7791,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -7719,7 +7819,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7795,7 +7895,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7871,7 +7971,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -8023,7 +8123,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -8099,7 +8199,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -8665,7 +8765,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8729,12 +8829,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6/36</t>
+          <t>7/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 16.7%</t>
+          <t>Utilization: 19.4%</t>
         </is>
       </c>
     </row>
